--- a/simu/Thesis/algorithm_comparison_20251105_103356.xlsx
+++ b/simu/Thesis/algorithm_comparison_20251105_103356.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28788" windowHeight="13020"/>
+    <workbookView windowWidth="22956" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="algorithm_comparison_20251105_1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>初始误包率</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>算法1和算法2平均值差别</t>
+  </si>
+  <si>
+    <t>算法0(BLE标准算法)和算法1平均值差别</t>
   </si>
 </sst>
 </file>
@@ -672,12 +675,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1212,17 +1221,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="5.66666666666667" customWidth="1"/>
     <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1"/>
+    <col min="11" max="11" width="15.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="43.2" spans="1:11">
@@ -1264,7 +1273,7 @@
       <c r="B2">
         <v>0.7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2">
@@ -1297,7 +1306,7 @@
       <c r="B3">
         <v>0.75</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3">
@@ -1330,7 +1339,7 @@
       <c r="B4">
         <v>0.8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4">
@@ -1363,7 +1372,7 @@
       <c r="B5">
         <v>0.85</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5">
@@ -1396,7 +1405,7 @@
       <c r="B6">
         <v>0.9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6">
@@ -1429,7 +1438,7 @@
       <c r="B7">
         <v>0.7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7">
@@ -1462,7 +1471,7 @@
       <c r="B8">
         <v>0.75</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8">
@@ -1495,7 +1504,7 @@
       <c r="B9">
         <v>0.8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9">
@@ -1528,7 +1537,7 @@
       <c r="B10">
         <v>0.85</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10">
@@ -1561,7 +1570,7 @@
       <c r="B11">
         <v>0.9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11">
@@ -1594,7 +1603,7 @@
       <c r="B12">
         <v>0.7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12">
@@ -1627,7 +1636,7 @@
       <c r="B13">
         <v>0.75</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13">
@@ -1660,7 +1669,7 @@
       <c r="B14">
         <v>0.8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14">
@@ -1693,7 +1702,7 @@
       <c r="B15">
         <v>0.85</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15">
@@ -1726,7 +1735,7 @@
       <c r="B16">
         <v>0.9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16">
@@ -1759,7 +1768,7 @@
       <c r="B17">
         <v>0.7</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17">
@@ -1792,7 +1801,7 @@
       <c r="B18">
         <v>0.75</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18">
@@ -1825,7 +1834,7 @@
       <c r="B19">
         <v>0.8</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19">
@@ -1858,7 +1867,7 @@
       <c r="B20">
         <v>0.85</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20">
@@ -1891,7 +1900,7 @@
       <c r="B21">
         <v>0.9</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21">
@@ -1924,7 +1933,7 @@
       <c r="B22">
         <v>0.7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22">
@@ -1957,7 +1966,7 @@
       <c r="B23">
         <v>0.75</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23">
@@ -1990,7 +1999,7 @@
       <c r="B24">
         <v>0.8</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24">
@@ -2023,7 +2032,7 @@
       <c r="B25">
         <v>0.85</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25">
@@ -2056,7 +2065,7 @@
       <c r="B26">
         <v>0.9</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26">
@@ -2806,6 +2815,806 @@
       <c r="I51">
         <v>374</v>
       </c>
+    </row>
+    <row r="52" ht="57.6" spans="11:11">
+      <c r="K52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1472</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1321</v>
+      </c>
+      <c r="F53" s="3">
+        <v>412</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1068.33</v>
+      </c>
+      <c r="H53" s="3">
+        <v>412</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1472</v>
+      </c>
+      <c r="K53" s="1">
+        <f>G53-G2</f>
+        <v>-3844</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>557</v>
+      </c>
+      <c r="E54" s="3">
+        <v>328</v>
+      </c>
+      <c r="F54" s="3">
+        <v>637</v>
+      </c>
+      <c r="G54" s="3">
+        <v>507.33</v>
+      </c>
+      <c r="H54" s="3">
+        <v>328</v>
+      </c>
+      <c r="I54" s="3">
+        <v>637</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" ref="K54:K76" si="1">G54-G3</f>
+        <v>-4380.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>266</v>
+      </c>
+      <c r="E55" s="3">
+        <v>318</v>
+      </c>
+      <c r="F55" s="3">
+        <v>203</v>
+      </c>
+      <c r="G55" s="3">
+        <v>262.33</v>
+      </c>
+      <c r="H55" s="3">
+        <v>203</v>
+      </c>
+      <c r="I55" s="3">
+        <v>318</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="1"/>
+        <v>-2517.67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>183</v>
+      </c>
+      <c r="E56" s="3">
+        <v>211</v>
+      </c>
+      <c r="F56" s="3">
+        <v>348</v>
+      </c>
+      <c r="G56" s="3">
+        <v>247.33</v>
+      </c>
+      <c r="H56" s="3">
+        <v>183</v>
+      </c>
+      <c r="I56" s="3">
+        <v>348</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="1"/>
+        <v>-333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1096</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1442</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2148</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1562</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1096</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2148</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="1"/>
+        <v>1209.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>280</v>
+      </c>
+      <c r="E58" s="3">
+        <v>472</v>
+      </c>
+      <c r="F58" s="3">
+        <v>620</v>
+      </c>
+      <c r="G58" s="3">
+        <v>457.33</v>
+      </c>
+      <c r="H58" s="3">
+        <v>280</v>
+      </c>
+      <c r="I58" s="3">
+        <v>620</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="1"/>
+        <v>-4439.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>368</v>
+      </c>
+      <c r="E59" s="3">
+        <v>187</v>
+      </c>
+      <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>251.67</v>
+      </c>
+      <c r="H59" s="3">
+        <v>187</v>
+      </c>
+      <c r="I59" s="3">
+        <v>368</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="1"/>
+        <v>-4088.66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>331</v>
+      </c>
+      <c r="E60" s="3">
+        <v>364</v>
+      </c>
+      <c r="F60" s="3">
+        <v>254</v>
+      </c>
+      <c r="G60" s="3">
+        <v>316.33</v>
+      </c>
+      <c r="H60" s="3">
+        <v>254</v>
+      </c>
+      <c r="I60" s="3">
+        <v>364</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="1"/>
+        <v>-4000.34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>221</v>
+      </c>
+      <c r="E61" s="3">
+        <v>207</v>
+      </c>
+      <c r="F61" s="3">
+        <v>192</v>
+      </c>
+      <c r="G61" s="3">
+        <v>206.67</v>
+      </c>
+      <c r="H61" s="3">
+        <v>192</v>
+      </c>
+      <c r="I61" s="3">
+        <v>221</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="1"/>
+        <v>-559.66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3784</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1095</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1709</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2196</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1095</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3784</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="1"/>
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2182</v>
+      </c>
+      <c r="E63" s="3">
+        <v>419</v>
+      </c>
+      <c r="F63" s="3">
+        <v>728</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1109.67</v>
+      </c>
+      <c r="H63" s="3">
+        <v>419</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2182</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="1"/>
+        <v>-3803.33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>262</v>
+      </c>
+      <c r="E64" s="3">
+        <v>396</v>
+      </c>
+      <c r="F64" s="3">
+        <v>255</v>
+      </c>
+      <c r="G64" s="3">
+        <v>304.33</v>
+      </c>
+      <c r="H64" s="3">
+        <v>255</v>
+      </c>
+      <c r="I64" s="3">
+        <v>396</v>
+      </c>
+      <c r="K64" s="1">
+        <f t="shared" si="1"/>
+        <v>-4609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>206</v>
+      </c>
+      <c r="E65" s="3">
+        <v>386</v>
+      </c>
+      <c r="F65" s="3">
+        <v>201</v>
+      </c>
+      <c r="G65" s="3">
+        <v>264.33</v>
+      </c>
+      <c r="H65" s="3">
+        <v>201</v>
+      </c>
+      <c r="I65" s="3">
+        <v>386</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="1"/>
+        <v>-1004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>232</v>
+      </c>
+      <c r="E66" s="3">
+        <v>194</v>
+      </c>
+      <c r="F66" s="3">
+        <v>268</v>
+      </c>
+      <c r="G66" s="3">
+        <v>231.33</v>
+      </c>
+      <c r="H66" s="3">
+        <v>194</v>
+      </c>
+      <c r="I66" s="3">
+        <v>268</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" si="1"/>
+        <v>-816.34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>857</v>
+      </c>
+      <c r="E67" s="3">
+        <v>583</v>
+      </c>
+      <c r="F67" s="3">
+        <v>929</v>
+      </c>
+      <c r="G67" s="3">
+        <v>789.67</v>
+      </c>
+      <c r="H67" s="3">
+        <v>583</v>
+      </c>
+      <c r="I67" s="3">
+        <v>929</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="1"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>614</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1055</v>
+      </c>
+      <c r="F68" s="3">
+        <v>610</v>
+      </c>
+      <c r="G68" s="3">
+        <v>759.67</v>
+      </c>
+      <c r="H68" s="3">
+        <v>610</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1055</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="1"/>
+        <v>-4140.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>203</v>
+      </c>
+      <c r="E69" s="3">
+        <v>303</v>
+      </c>
+      <c r="F69" s="3">
+        <v>468</v>
+      </c>
+      <c r="G69" s="3">
+        <v>324.67</v>
+      </c>
+      <c r="H69" s="3">
+        <v>203</v>
+      </c>
+      <c r="I69" s="3">
+        <v>468</v>
+      </c>
+      <c r="K69" s="1">
+        <f t="shared" si="1"/>
+        <v>-3297.66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>251</v>
+      </c>
+      <c r="E70" s="3">
+        <v>306</v>
+      </c>
+      <c r="F70" s="3">
+        <v>467</v>
+      </c>
+      <c r="G70" s="3">
+        <v>341.33</v>
+      </c>
+      <c r="H70" s="3">
+        <v>251</v>
+      </c>
+      <c r="I70" s="3">
+        <v>467</v>
+      </c>
+      <c r="K70" s="1">
+        <f t="shared" si="1"/>
+        <v>-1818</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>205</v>
+      </c>
+      <c r="E71" s="3">
+        <v>281</v>
+      </c>
+      <c r="F71" s="3">
+        <v>258</v>
+      </c>
+      <c r="G71" s="3">
+        <v>248</v>
+      </c>
+      <c r="H71" s="3">
+        <v>205</v>
+      </c>
+      <c r="I71" s="3">
+        <v>281</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="1"/>
+        <v>-501.67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2327</v>
+      </c>
+      <c r="E72" s="3">
+        <v>276</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1707</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1436.67</v>
+      </c>
+      <c r="H72" s="3">
+        <v>276</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2327</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="1"/>
+        <v>962.34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>447</v>
+      </c>
+      <c r="E73" s="3">
+        <v>3403</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2875</v>
+      </c>
+      <c r="G73" s="3">
+        <v>2241.67</v>
+      </c>
+      <c r="H73" s="3">
+        <v>447</v>
+      </c>
+      <c r="I73" s="3">
+        <v>3403</v>
+      </c>
+      <c r="K73" s="1">
+        <f t="shared" si="1"/>
+        <v>-2658</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>246</v>
+      </c>
+      <c r="E74" s="3">
+        <v>169</v>
+      </c>
+      <c r="F74" s="3">
+        <v>197</v>
+      </c>
+      <c r="G74" s="3">
+        <v>204</v>
+      </c>
+      <c r="H74" s="3">
+        <v>169</v>
+      </c>
+      <c r="I74" s="3">
+        <v>246</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="1"/>
+        <v>-3569.67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>484</v>
+      </c>
+      <c r="E75" s="3">
+        <v>306</v>
+      </c>
+      <c r="F75" s="3">
+        <v>205</v>
+      </c>
+      <c r="G75" s="3">
+        <v>331.67</v>
+      </c>
+      <c r="H75" s="3">
+        <v>205</v>
+      </c>
+      <c r="I75" s="3">
+        <v>484</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="1"/>
+        <v>-1191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>512</v>
+      </c>
+      <c r="E76" s="3">
+        <v>238</v>
+      </c>
+      <c r="F76" s="3">
+        <v>339</v>
+      </c>
+      <c r="G76" s="3">
+        <v>363</v>
+      </c>
+      <c r="H76" s="3">
+        <v>238</v>
+      </c>
+      <c r="I76" s="3">
+        <v>512</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="1"/>
+        <v>53.67</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:I51">
